--- a/MyModels/Trained result with different args.xlsx
+++ b/MyModels/Trained result with different args.xlsx
@@ -51,9 +51,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -77,8 +77,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,9 +99,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,101 +191,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,6 +212,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -230,187 +230,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +421,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,15 +479,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,23 +501,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,26 +521,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -529,10 +529,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,133 +541,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,8 +1034,8 @@
   <sheetPr/>
   <dimension ref="B1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1971,15 +1971,116 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:19">
       <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="2:2">
+      <c r="C28">
+        <v>0.8094</v>
+      </c>
+      <c r="D28">
+        <v>0.8431</v>
+      </c>
+      <c r="E28">
+        <v>0.8573</v>
+      </c>
+      <c r="F28">
+        <v>0.8733</v>
+      </c>
+      <c r="G28">
+        <v>0.8887</v>
+      </c>
+      <c r="H28">
+        <v>0.8881</v>
+      </c>
+      <c r="I28">
+        <v>0.8988</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.8964</v>
+      </c>
+      <c r="K28">
+        <v>0.9106</v>
+      </c>
+      <c r="L28">
+        <v>0.9053</v>
+      </c>
+      <c r="M28">
+        <v>0.9124</v>
+      </c>
+      <c r="N28">
+        <v>0.9189</v>
+      </c>
+      <c r="O28">
+        <v>0.91</v>
+      </c>
+      <c r="P28">
+        <v>0.9147</v>
+      </c>
+      <c r="Q28">
+        <v>0.9206</v>
+      </c>
+      <c r="R28">
+        <v>0.9153</v>
+      </c>
+      <c r="S28">
+        <v>0.9254</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19">
       <c r="B29" t="s">
         <v>3</v>
+      </c>
+      <c r="C29">
+        <v>0.485</v>
+      </c>
+      <c r="D29">
+        <v>0.4127</v>
+      </c>
+      <c r="E29">
+        <v>0.3708</v>
+      </c>
+      <c r="F29">
+        <v>0.3405</v>
+      </c>
+      <c r="G29">
+        <v>0.3135</v>
+      </c>
+      <c r="H29">
+        <v>0.3</v>
+      </c>
+      <c r="I29">
+        <v>0.2784</v>
+      </c>
+      <c r="J29">
+        <v>0.2636</v>
+      </c>
+      <c r="K29">
+        <v>0.2508</v>
+      </c>
+      <c r="L29">
+        <v>0.2506</v>
+      </c>
+      <c r="M29">
+        <v>0.2381</v>
+      </c>
+      <c r="N29">
+        <v>0.2285</v>
+      </c>
+      <c r="O29">
+        <v>0.2319</v>
+      </c>
+      <c r="P29">
+        <v>0.2255</v>
+      </c>
+      <c r="Q29">
+        <v>0.2235</v>
+      </c>
+      <c r="R29">
+        <v>0.2169</v>
+      </c>
+      <c r="S29">
+        <v>0.2146</v>
       </c>
     </row>
   </sheetData>

--- a/MyModels/Trained result with different args.xlsx
+++ b/MyModels/Trained result with different args.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11424" windowHeight="8112"/>
+    <workbookView windowWidth="11424" windowHeight="8112" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>image_patch = [8, 8, 1], batch_size = 100 # 1000_frames_(8,8)</t>
   </si>
@@ -43,6 +43,63 @@
   </si>
   <si>
     <t>image_patch = [16, 16, 1], batch_size = 200 kernel_size = (16,16)# 1000_frames_bs_200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used model : </t>
+  </si>
+  <si>
+    <t>Kernel_size,batch_size</t>
+  </si>
+  <si>
+    <t>global_step</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>acc_on_cnn</t>
+  </si>
+  <si>
+    <t>acc_on_orb</t>
+  </si>
+  <si>
+    <t>(16, 16), 100</t>
+  </si>
+  <si>
+    <t># 1000_frames_use16</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t># 1000_frames_use24000</t>
+  </si>
+  <si>
+    <t># 1000_frames_use36000</t>
+  </si>
+  <si>
+    <t># 1000_frames_use30000</t>
+  </si>
+  <si>
+    <t>ker_size = (16, 16) global_step = 30000  (from # 1000_frames_use30000)</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t># 1000_frames_version1</t>
+  </si>
+  <si>
+    <t>change batch_size 100 -&gt; 128</t>
+  </si>
+  <si>
+    <t># 1000_frames_version2</t>
   </si>
 </sst>
 </file>
@@ -50,8 +107,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -77,8 +134,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -92,43 +207,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -136,15 +224,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,14 +242,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,30 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -214,10 +271,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -230,31 +287,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,151 +455,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,6 +478,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,28 +525,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,30 +578,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -529,10 +586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,138 +598,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1034,8 +1094,8 @@
   <sheetPr/>
   <dimension ref="B1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1149,7 +1209,7 @@
       <c r="O3">
         <v>0.8963</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="2">
         <v>0.9017</v>
       </c>
       <c r="Q3">
@@ -1313,7 +1373,7 @@
       <c r="L8">
         <v>0.8976</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
         <v>0.9011</v>
       </c>
       <c r="N8">
@@ -1477,7 +1537,7 @@
       <c r="I13">
         <v>0.8946</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>0.9047</v>
       </c>
       <c r="K13">
@@ -1650,7 +1710,7 @@
       <c r="I18">
         <v>0.8769</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="3">
         <v>0.884</v>
       </c>
       <c r="K18">
@@ -1662,7 +1722,7 @@
       <c r="M18">
         <v>0.8917</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N18" s="2">
         <v>0.9017</v>
       </c>
       <c r="O18">
@@ -1823,7 +1883,7 @@
       <c r="I23">
         <v>0.8384</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="4">
         <v>0.8449</v>
       </c>
       <c r="K23">
@@ -1996,7 +2056,7 @@
       <c r="I28">
         <v>0.8988</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="4">
         <v>0.8964</v>
       </c>
       <c r="K28">
@@ -2093,14 +2153,203 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="4.77777777777778" customWidth="1"/>
+    <col min="2" max="2" width="13.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="9.77777777777778" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="11.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="22.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>48000</v>
+      </c>
+      <c r="D4">
+        <v>0.2593</v>
+      </c>
+      <c r="E4">
+        <v>0.9023</v>
+      </c>
+      <c r="F4">
+        <v>0.771</v>
+      </c>
+      <c r="G4">
+        <v>0.8154</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>24000</v>
+      </c>
+      <c r="D5">
+        <v>0.3156</v>
+      </c>
+      <c r="E5">
+        <v>0.8834</v>
+      </c>
+      <c r="F5">
+        <v>0.8017</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>36000</v>
+      </c>
+      <c r="D6">
+        <v>0.2632</v>
+      </c>
+      <c r="E6">
+        <v>0.9041</v>
+      </c>
+      <c r="F6">
+        <v>0.7776</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>30000</v>
+      </c>
+      <c r="D7">
+        <v>0.2567</v>
+      </c>
+      <c r="E7">
+        <v>0.9059</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.8067</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.2953</v>
+      </c>
+      <c r="D11">
+        <v>0.8851</v>
+      </c>
+      <c r="E11">
+        <v>0.7821</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3.6667</v>
+      </c>
+      <c r="D12">
+        <v>0.0515</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13">
+        <v>3.667</v>
+      </c>
+      <c r="D13">
+        <v>0.515</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/MyModels/Trained result with different args.xlsx
+++ b/MyModels/Trained result with different args.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11424" windowHeight="8112" activeTab="1"/>
+    <workbookView windowWidth="11424" windowHeight="8112" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>image_patch = [8, 8, 1], batch_size = 100 # 1000_frames_(8,8)</t>
   </si>
@@ -100,6 +100,60 @@
   </si>
   <si>
     <t># 1000_frames_version2</t>
+  </si>
+  <si>
+    <t>add 30000time of lr = 0.0001</t>
+  </si>
+  <si>
+    <t># 1000_frames_version3</t>
+  </si>
+  <si>
+    <t>reduce a level of convolution</t>
+  </si>
+  <si>
+    <t># 1000_frames_version4</t>
+  </si>
+  <si>
+    <t>change filters 64 -&gt; 32 in conv2</t>
+  </si>
+  <si>
+    <t># 1000_frames_version5</t>
+  </si>
+  <si>
+    <t>add one more convolution layer(con3)</t>
+  </si>
+  <si>
+    <t># 1000_frames_version6</t>
+  </si>
+  <si>
+    <t>filter size [3, 3] -&gt; [5, 5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 frames: (kp_data2) batch_size: 100 </t>
+  </si>
+  <si>
+    <t>(basic)</t>
+  </si>
+  <si>
+    <t># 100_frames_100_n</t>
+  </si>
+  <si>
+    <t>200-300 aver acc orb</t>
+  </si>
+  <si>
+    <t>200-300 aver acc cnn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 frames: (kp_data2) batch_size: 128 </t>
+  </si>
+  <si>
+    <t># 100_frames_100_v1</t>
+  </si>
+  <si>
+    <t>100 frames: (kp_data2) batch_size: 128 filter x2</t>
+  </si>
+  <si>
+    <t># 100_frames_100_v2</t>
   </si>
 </sst>
 </file>
@@ -108,8 +162,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -135,15 +189,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,6 +202,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -163,30 +224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,9 +246,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,9 +293,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,20 +324,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -287,49 +341,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,85 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,42 +522,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +532,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -507,11 +585,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,7 +604,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,45 +632,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -586,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,16 +652,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,115 +670,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2153,10 +2207,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -2167,7 +2221,7 @@
     <col min="4" max="4" width="9.77777777777778" customWidth="1"/>
     <col min="5" max="5" width="11.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="11.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="11.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="16.1111111111111" customWidth="1"/>
     <col min="8" max="8" width="22.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2278,7 +2332,7 @@
       <c r="E7">
         <v>0.9059</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0.8067</v>
       </c>
       <c r="G7" t="s">
@@ -2327,26 +2381,109 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:8">
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>3.6667</v>
+        <v>0.253</v>
       </c>
       <c r="D12">
-        <v>0.0515</v>
+        <v>0.9088</v>
+      </c>
+      <c r="E12">
+        <v>0.795</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="3:4">
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13">
+        <v>3</v>
+      </c>
       <c r="C13">
-        <v>3.667</v>
+        <v>0.3138</v>
       </c>
       <c r="D13">
-        <v>0.515</v>
+        <v>0.8887</v>
+      </c>
+      <c r="E13">
+        <v>0.8015</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0.387</v>
+      </c>
+      <c r="D14">
+        <v>0.8425</v>
+      </c>
+      <c r="E14">
+        <v>0.7885</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>0.2667</v>
+      </c>
+      <c r="D15">
+        <v>0.8934</v>
+      </c>
+      <c r="E15">
+        <v>0.7946</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>0.348</v>
+      </c>
+      <c r="D16">
+        <v>0.8632</v>
+      </c>
+      <c r="E16">
+        <v>0.8017</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2359,14 +2496,389 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="12.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>10000</v>
+      </c>
+      <c r="D4">
+        <v>20000</v>
+      </c>
+      <c r="E4">
+        <v>30000</v>
+      </c>
+      <c r="F4">
+        <v>40000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>50000</v>
+      </c>
+      <c r="H4">
+        <v>60000</v>
+      </c>
+      <c r="I4">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0.6757</v>
+      </c>
+      <c r="D5">
+        <v>0.6075</v>
+      </c>
+      <c r="E5">
+        <v>0.5507</v>
+      </c>
+      <c r="F5">
+        <v>0.5251</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.4985</v>
+      </c>
+      <c r="H5">
+        <v>0.4859</v>
+      </c>
+      <c r="I5">
+        <v>0.466</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>0.7294</v>
+      </c>
+      <c r="D6">
+        <v>0.7538</v>
+      </c>
+      <c r="E6">
+        <v>0.78</v>
+      </c>
+      <c r="F6">
+        <v>0.7912</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.8026</v>
+      </c>
+      <c r="H6">
+        <v>0.8115</v>
+      </c>
+      <c r="I6">
+        <v>0.8196</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>0.7721</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8">
+        <v>0.8325</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.821</v>
+      </c>
+      <c r="H8">
+        <v>0.8073</v>
+      </c>
+      <c r="I8">
+        <v>0.7972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>10000</v>
+      </c>
+      <c r="D13">
+        <v>20000</v>
+      </c>
+      <c r="E13">
+        <v>30000</v>
+      </c>
+      <c r="F13">
+        <v>40000</v>
+      </c>
+      <c r="G13" s="1">
+        <v>50000</v>
+      </c>
+      <c r="H13">
+        <v>60000</v>
+      </c>
+      <c r="I13">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.6354</v>
+      </c>
+      <c r="D14">
+        <v>0.561</v>
+      </c>
+      <c r="E14">
+        <v>0.5118</v>
+      </c>
+      <c r="F14">
+        <v>0.487</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.4506</v>
+      </c>
+      <c r="H14">
+        <v>0.4348</v>
+      </c>
+      <c r="I14">
+        <v>0.4143</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>0.7487</v>
+      </c>
+      <c r="D15">
+        <v>0.7773</v>
+      </c>
+      <c r="E15">
+        <v>0.7967</v>
+      </c>
+      <c r="F15">
+        <v>0.8037</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.8233</v>
+      </c>
+      <c r="H15">
+        <v>0.8283</v>
+      </c>
+      <c r="I15">
+        <v>0.8363</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>0.7721</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>0.8583</v>
+      </c>
+      <c r="D17">
+        <v>0.8464</v>
+      </c>
+      <c r="E17">
+        <v>0.8333</v>
+      </c>
+      <c r="F17">
+        <v>0.8265</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.8217</v>
+      </c>
+      <c r="H17">
+        <v>0.8039</v>
+      </c>
+      <c r="I17">
+        <v>0.7922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>10000</v>
+      </c>
+      <c r="D22">
+        <v>20000</v>
+      </c>
+      <c r="E22">
+        <v>30000</v>
+      </c>
+      <c r="F22">
+        <v>40000</v>
+      </c>
+      <c r="G22">
+        <v>50000</v>
+      </c>
+      <c r="H22">
+        <v>60000</v>
+      </c>
+      <c r="I22">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0.602</v>
+      </c>
+      <c r="D23">
+        <v>0.5265</v>
+      </c>
+      <c r="E23">
+        <v>0.4755</v>
+      </c>
+      <c r="F23">
+        <v>0.4514</v>
+      </c>
+      <c r="G23">
+        <v>0.4155</v>
+      </c>
+      <c r="H23">
+        <v>0.3914</v>
+      </c>
+      <c r="I23">
+        <v>0.3744</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.759</v>
+      </c>
+      <c r="D24">
+        <v>0.7937</v>
+      </c>
+      <c r="E24">
+        <v>0.8126</v>
+      </c>
+      <c r="F24">
+        <v>0.8204</v>
+      </c>
+      <c r="G24">
+        <v>0.8351</v>
+      </c>
+      <c r="H24">
+        <v>0.8476</v>
+      </c>
+      <c r="I24">
+        <v>0.8553</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>0.7721</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>0.852</v>
+      </c>
+      <c r="D26">
+        <v>0.8411</v>
+      </c>
+      <c r="E26">
+        <v>0.8227</v>
+      </c>
+      <c r="F26">
+        <v>0.8136</v>
+      </c>
+      <c r="G26">
+        <v>0.8096</v>
+      </c>
+      <c r="H26">
+        <v>0.8075</v>
+      </c>
+      <c r="I26">
+        <v>0.8055</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9">
+      <c r="H27">
+        <v>58.19</v>
+      </c>
+      <c r="I27">
+        <v>58.46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
